--- a/QC Checklist_backup.xlsx
+++ b/QC Checklist_backup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zohrab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246AD647-858F-44DE-9F62-702509078E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73775878-9173-4776-A90A-CBB75007D0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -341,12 +341,38 @@
   <si>
     <t>کیفیت چکلیست زیرساخت</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">میزان انجام کار </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="B Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>(نفرساعت)</t>
+    </r>
+  </si>
+  <si>
+    <t>تاثیر نفرساعت (درصد)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +431,13 @@
       <color theme="1"/>
       <name val="B Nazanin"/>
       <charset val="178"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -507,7 +540,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -544,48 +577,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1165,7 +1219,7 @@
   <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1174,7 +1228,7 @@
     <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="39" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -1203,27 +1257,29 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="24"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1232,551 +1288,551 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
       <c r="D15" s="5"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="17"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="17"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="17"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="5"/>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="16"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
       <c r="D20" s="5"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="5"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
       <c r="D22" s="5"/>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
       <c r="D23" s="5"/>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="5"/>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="5"/>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="5"/>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="5"/>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
       <c r="D28" s="5"/>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="5"/>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="5"/>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="5"/>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="5"/>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="5"/>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="19"/>
-      <c r="C34" s="19"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="5"/>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="5"/>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
       <c r="D36" s="5"/>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
       <c r="D37" s="5"/>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="20" t="s">
+      <c r="A38" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" s="5"/>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
       <c r="D39" s="5"/>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="20" t="s">
+      <c r="A40" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" s="5"/>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" s="5"/>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="20" t="s">
+      <c r="A42" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="D42" s="5"/>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
       <c r="D43" s="5"/>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" s="5"/>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" s="5"/>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="19" t="s">
+      <c r="A46" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
       <c r="D46" s="5"/>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
       <c r="D47" s="5"/>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="20" t="s">
+      <c r="A48" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" s="5"/>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="19" t="s">
+      <c r="A49" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
       <c r="D49" s="5"/>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="19" t="s">
+      <c r="A50" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
       <c r="D50" s="5"/>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
       <c r="D51" s="5"/>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="19" t="s">
+      <c r="A53" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
       <c r="D53" s="5"/>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
       <c r="D54" s="5"/>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="20" t="s">
+      <c r="A55" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" s="5"/>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
       <c r="D56" s="5"/>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="20" t="s">
+      <c r="A57" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" s="5"/>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
       <c r="D58" s="5"/>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="19" t="s">
+      <c r="A59" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
       <c r="D59" s="5"/>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
       <c r="D60" s="5"/>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" s="5"/>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
       <c r="D62" s="5"/>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="20" t="s">
+      <c r="A63" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
       <c r="D63" s="5"/>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="20" t="s">
+      <c r="A64" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64" s="5"/>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="20" t="s">
+      <c r="A65" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
       <c r="D65" s="5"/>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="16" t="s">
+      <c r="A66" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="16"/>
-      <c r="C66" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
       <c r="D66" s="5"/>
       <c r="E66" s="6"/>
     </row>
@@ -1786,9 +1842,59 @@
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
-  <mergeCells count="64">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
+  <mergeCells count="66">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
     <mergeCell ref="A66:C66"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A64:C64"/>
@@ -1803,63 +1909,15 @@
     <mergeCell ref="A57:C57"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="29" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C66 A4 A82:C1048576">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C66">
-    <cfRule type="duplicateValues" dxfId="27" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="188"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1870,7 +1928,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D18"/>
+      <selection activeCell="D6" sqref="D6:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1922,30 +1980,35 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="24">
-        <f>'چکلیست عمومی'!A4:E4</f>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="19"/>
+    </row>
+    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <f>'چکلیست عمومی'!A4:C4</f>
         <v>0</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="22">
+        <f>'چکلیست عمومی'!D4:E4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1954,154 +2017,159 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="5"/>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="5"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
       <c r="D8" s="5"/>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
       <c r="D9" s="5"/>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
       <c r="D10" s="5"/>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" s="5"/>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" s="5"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" s="5"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="5"/>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="21">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
@@ -2111,62 +2179,62 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C1">
+    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:C5">
     <cfRule type="duplicateValues" dxfId="26" priority="25"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5 A4">
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5">
-    <cfRule type="duplicateValues" dxfId="24" priority="24"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7">
-    <cfRule type="duplicateValues" dxfId="21" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8">
-    <cfRule type="duplicateValues" dxfId="19" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9">
-    <cfRule type="duplicateValues" dxfId="17" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:C10">
-    <cfRule type="duplicateValues" dxfId="15" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C17">
-    <cfRule type="duplicateValues" dxfId="13" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="duplicateValues" dxfId="11" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19">
-    <cfRule type="duplicateValues" dxfId="9" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C21">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2174,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A69029-A46F-4F27-95F5-737DE55CE3FA}">
-  <dimension ref="A1:E100"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+      <selection activeCell="J1" sqref="I1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,7 +2257,7 @@
     <col min="5" max="5" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -2205,8 +2273,14 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="I1" s="26">
+        <v>0.1</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>'چکلیست عمومی'!A2</f>
         <v>0</v>
@@ -2227,32 +2301,49 @@
         <f>'چکلیست عمومی'!E2</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="I2" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.45">
-      <c r="A4" s="24">
-        <f>'چکلیست عمومی'!A4:E4</f>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="I3" s="26">
+        <v>1</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="22">
+        <f>'چکلیست عمومی'!A4:C4</f>
         <v>0</v>
       </c>
       <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="C4" s="23"/>
+      <c r="D4" s="22">
+        <f>'چکلیست عمومی'!D4:E4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="23"/>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2260,680 +2351,754 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="13"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="13"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="13"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
       <c r="D9" s="13"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
       <c r="D10" s="13"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
       <c r="D11" s="13"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
       <c r="D12" s="13"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
       <c r="D13" s="13"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
       <c r="D14" s="13"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
       <c r="D15" s="13"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
       <c r="D16" s="13"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="13"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="13"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="13"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="13"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="13"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
       <c r="D23" s="13"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
       <c r="D24" s="13"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
       <c r="D25" s="13"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
       <c r="D26" s="13"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
       <c r="D28" s="13"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
       <c r="D29" s="13"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
       <c r="D30" s="13"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
       <c r="D31" s="13"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
       <c r="D33" s="13"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="13"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="13"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="13"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="13"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="13"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="13"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
+      <c r="A40" s="21"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="13"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="13"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="13"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="13"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="13"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="13"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="13"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="13"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="13"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="13"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
+      <c r="A50" s="21"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="13"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="21"/>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="13"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
+      <c r="A52" s="21"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="13"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
+      <c r="A53" s="21"/>
+      <c r="B53" s="21"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="13"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
+      <c r="A54" s="21"/>
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="13"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
+      <c r="A55" s="21"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="13"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
+      <c r="A56" s="21"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="13"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
+      <c r="A57" s="21"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="13"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
+      <c r="A58" s="21"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="13"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
+      <c r="A59" s="21"/>
+      <c r="B59" s="21"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="13"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
+      <c r="A60" s="21"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="13"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="13"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
+      <c r="A62" s="21"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="13"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
+      <c r="A63" s="21"/>
+      <c r="B63" s="21"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="13"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
+      <c r="A64" s="21"/>
+      <c r="B64" s="21"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="13"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
+      <c r="A65" s="21"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="13"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
+      <c r="A66" s="21"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="13"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
+      <c r="A67" s="21"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="13"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
+      <c r="A68" s="21"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="13"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
+      <c r="A69" s="21"/>
+      <c r="B69" s="21"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="13"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="13"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
+      <c r="A71" s="21"/>
+      <c r="B71" s="21"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="13"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="13"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="13"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
+      <c r="A74" s="21"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="13"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
+      <c r="A75" s="21"/>
+      <c r="B75" s="21"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="13"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
+      <c r="A76" s="21"/>
+      <c r="B76" s="21"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="13"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
+      <c r="A77" s="21"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="13"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
+      <c r="A78" s="21"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="13"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="13"/>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="13"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
       <c r="D81" s="13"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
       <c r="D82" s="13"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
+      <c r="A83" s="21"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="21"/>
       <c r="D83" s="13"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
       <c r="D84" s="13"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
       <c r="D85" s="13"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="21"/>
       <c r="D86" s="13"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="21"/>
       <c r="D87" s="13"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="21"/>
+      <c r="C88" s="21"/>
       <c r="D88" s="13"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
       <c r="D89" s="13"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="21"/>
+      <c r="C90" s="21"/>
       <c r="D90" s="13"/>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
+      <c r="A91" s="21"/>
+      <c r="B91" s="21"/>
+      <c r="C91" s="21"/>
       <c r="D91" s="13"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
+      <c r="A92" s="21"/>
+      <c r="B92" s="21"/>
+      <c r="C92" s="21"/>
       <c r="D92" s="13"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
+      <c r="A93" s="21"/>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
       <c r="D93" s="13"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
+      <c r="A94" s="21"/>
+      <c r="B94" s="21"/>
+      <c r="C94" s="21"/>
       <c r="D94" s="13"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
+      <c r="A95" s="21"/>
+      <c r="B95" s="21"/>
+      <c r="C95" s="21"/>
       <c r="D95" s="13"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
+      <c r="A96" s="21"/>
+      <c r="B96" s="21"/>
+      <c r="C96" s="21"/>
       <c r="D96" s="13"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
+      <c r="A97" s="21"/>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
       <c r="D97" s="13"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
+      <c r="A98" s="21"/>
+      <c r="B98" s="21"/>
+      <c r="C98" s="21"/>
       <c r="D98" s="13"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
+      <c r="A99" s="21"/>
+      <c r="B99" s="21"/>
+      <c r="C99" s="21"/>
       <c r="D99" s="13"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
+      <c r="A100" s="21"/>
+      <c r="B100" s="21"/>
+      <c r="C100" s="21"/>
       <c r="D100" s="13"/>
       <c r="E100" s="8"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" selectLockedCells="1"/>
-  <mergeCells count="98">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
+  <mergeCells count="100">
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
@@ -2946,97 +3111,30 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1">
+  <conditionalFormatting sqref="A5:C5">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
     <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D100" xr:uid="{B1661E6D-2272-42FE-800C-A6430388B7D7}">
+      <formula1>$J$1:$J$3</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3046,21 +3144,21 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="3" width="33.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" customWidth="1"/>
+    <col min="3" max="4" width="33.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>88</v>
       </c>
@@ -3071,37 +3169,61 @@
         <v>87</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="e">
-        <f>(COUNTIF('چکلیست عمومی'!D6:D66,"Y"))/
-   (COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست عمومی'!D6:D66,"N"))</f>
+        <f>COUNTIF('چکلیست عمومی'!D6:D66,"Y")/
+   COUNTA('چکلیست عمومی'!D6:D66)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="B2" s="12" t="e">
-        <f>(COUNTIF('چکلیست زیرساخت'!D6:D21,"Y"))/
-   (COUNTIF('چکلیست زیرساخت'!D6:D21,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"N"))</f>
+        <f>COUNTIF('چکلیست زیرساخت'!D6:D21,"Y")/
+   COUNTA('چکلیست زیرساخت'!D6:D21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="C2" s="11">
-        <f>COUNTIF('چکلیست کسب و کار'!D6:D100,"N")</f>
+        <f>COUNTA('چکلیست کسب و کار'!D6:D100)</f>
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="e">
+      <c r="D2" s="25" t="e">
+        <f>(COUNTIF('چکلیست کسب و کار'!D6:D100,"M")*0.5
++COUNTIF('چکلیست کسب و کار'!D6:D100,"S")*0.1
++COUNTIF('چکلیست کسب و کار'!D6:D100,"C"))/'چکلیست عمومی'!D4:E4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E2" s="12" t="e">
         <f>(COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"Y"))/
-     (COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست عمومی'!D6:D66,"N")+
-     COUNTIF('چکلیست زیرساخت'!D6:D21,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"N")+
-     COUNTIF('چکلیست کسب و کار'!D6:D100,"N"))</f>
+   (COUNTA('چکلیست عمومی'!D6:D66)+
+    COUNTA('چکلیست زیرساخت'!D6:D21)+C2)  -
+IF(D2&gt;0.03,D2*4,
+IF(AND(D2&lt;=0.03,D2&gt;0.02),D2*3,
+IF(AND(D2&lt;=0.02,D2&gt;=0.01),D2*2,
+IF(D2&lt;0.01,D2))))</f>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ZjK+SGN4IUu/vCULOCRngne535QQfrHQeoUTT01Xc8b2xyjCenrSovkT2IVJ1QrDz8nTK3CDW5pc8WIVGi0yAQ==" saltValue="JLm0d7YGkp+F5+t48Sprfw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="0rc/kApzW2vKwSnualWfuTgkeyAlCKrdENjKo9afPe1ucJySuhLPpBUVBMfBIcsE/83L+Lth1vXT7JmrbVQerQ==" saltValue="Ns7V7YePBNn87uLS7NurqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="2"/>
+        <cfvo type="percent" val="100"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:D2" evalError="1"/>
+    <ignoredError sqref="D2:E2 A2:B2" evalError="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/QC Checklist_backup.xlsx
+++ b/QC Checklist_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zohrab\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Pouya\control quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73775878-9173-4776-A90A-CBB75007D0C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9A719-18E8-4668-BE42-046E2E2D656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="چکلیست عمومی" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_ftn1" localSheetId="0">'چکلیست عمومی'!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="0">'چکلیست عمومی'!$D$66</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="99">
   <si>
     <t>نام فرایند</t>
   </si>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>تاثیر خطا(S,M,C)</t>
+  </si>
+  <si>
+    <t>جمع خطاها</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,6 +589,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -584,42 +615,26 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -931,12 +946,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1218,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1257,29 +1276,31 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="22"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16">
+        <v>500</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -1288,552 +1309,674 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="5"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="5"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E19" s="4"/>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="5"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="5"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="5"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E22" s="4"/>
     </row>
     <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="5"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E23" s="4"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="5"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="5"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E25" s="4"/>
     </row>
     <row r="26" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="5"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E26" s="4"/>
     </row>
     <row r="27" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="5"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="5"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E28" s="4"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="5"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E29" s="4"/>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="5"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E30" s="4"/>
     </row>
     <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="5"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E31" s="4"/>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="5"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E33" s="4"/>
     </row>
     <row r="34" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="5"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E34" s="4"/>
     </row>
     <row r="35" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="17" t="s">
+      <c r="A35" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="5"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="5"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E36" s="4"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="5"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E37" s="4"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="5"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="5"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E39" s="4"/>
     </row>
     <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="5"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E40" s="4"/>
     </row>
     <row r="41" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="16" t="s">
+      <c r="A41" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="5"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E41" s="4"/>
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E42" s="4"/>
     </row>
     <row r="43" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="17" t="s">
+      <c r="A43" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="5"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E43" s="4"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="5"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E44" s="4"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="16" t="s">
+      <c r="A45" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="5"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E45" s="4"/>
     </row>
     <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="5"/>
+      <c r="B46" s="23"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="17" t="s">
+      <c r="A47" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="5"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E47" s="4"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="16" t="s">
+      <c r="A48" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-      <c r="D48" s="5"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E48" s="6"/>
     </row>
     <row r="49" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="17" t="s">
+      <c r="A49" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="5"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E49" s="6"/>
     </row>
     <row r="50" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="5"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E50" s="6"/>
     </row>
     <row r="51" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="16" t="s">
+      <c r="A51" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-      <c r="D51" s="5"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E51" s="6"/>
     </row>
     <row r="52" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="5"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E52" s="6"/>
     </row>
     <row r="53" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="17" t="s">
+      <c r="A53" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="5"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E53" s="6"/>
     </row>
     <row r="54" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="17" t="s">
+      <c r="A54" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="5"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E54" s="6"/>
     </row>
     <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="5"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E55" s="6"/>
     </row>
     <row r="56" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="17" t="s">
+      <c r="A56" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="5"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E56" s="6"/>
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="16" t="s">
+      <c r="A57" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-      <c r="D57" s="5"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E57" s="6"/>
     </row>
     <row r="58" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="16" t="s">
+      <c r="A58" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-      <c r="D58" s="5"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="5"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E59" s="6"/>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="16" t="s">
+      <c r="A60" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-      <c r="D60" s="5"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="16" t="s">
+      <c r="A61" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="5"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E61" s="6"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="16" t="s">
+      <c r="A62" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-      <c r="D62" s="5"/>
+      <c r="B62" s="24"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="16" t="s">
+      <c r="A63" s="24" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="24"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E63" s="6"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-      <c r="D64" s="5"/>
+      <c r="B64" s="24"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="16" t="s">
+      <c r="A65" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-      <c r="D65" s="5"/>
+      <c r="B65" s="24"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E65" s="6"/>
     </row>
     <row r="66" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="5"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E66" s="6"/>
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1843,18 +1986,62 @@
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="66">
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
@@ -1865,59 +2052,15 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A52:C52"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C2">
-    <cfRule type="duplicateValues" dxfId="31" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C66 A4 A82:C1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C66">
-    <cfRule type="duplicateValues" dxfId="29" priority="188"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="188"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1927,8 +2070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C1CBCD-0835-45A9-961F-A8E09F5E001E}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D21"/>
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1980,35 +2123,35 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="15"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="16">
         <f>'چکلیست عمومی'!A4:C4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16">
         <f>'چکلیست عمومی'!D4:E4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="23"/>
+        <v>500</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
@@ -2017,158 +2160,177 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="5"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E6" s="4"/>
     </row>
     <row r="7" spans="1:5" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="5"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E8" s="4"/>
     </row>
     <row r="9" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="5"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="5"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="5"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E12" s="4"/>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="5"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="5"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="5"/>
       <c r="E17" s="4"/>
     </row>
     <row r="18" spans="1:5" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="5"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="E18" s="4"/>
     </row>
     <row r="19" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="5"/>
       <c r="E19" s="6"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="5"/>
       <c r="E20" s="6"/>
     </row>
     <row r="21" spans="1:5" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="15"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="5"/>
       <c r="E21" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
@@ -2179,62 +2341,63 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
   </mergeCells>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="27" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="28" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="duplicateValues" dxfId="27" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C5">
-    <cfRule type="duplicateValues" dxfId="26" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:C6">
-    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="23"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:C7">
-    <cfRule type="duplicateValues" dxfId="23" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:C8">
-    <cfRule type="duplicateValues" dxfId="21" priority="18"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:C9">
-    <cfRule type="duplicateValues" dxfId="19" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:C10">
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:C17">
-    <cfRule type="duplicateValues" dxfId="15" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:C18">
-    <cfRule type="duplicateValues" dxfId="13" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:C19">
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:C20">
-    <cfRule type="duplicateValues" dxfId="9" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:C21">
-    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2244,8 +2407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7A69029-A46F-4F27-95F5-737DE55CE3FA}">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="I1:J3"/>
+    <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,10 +2436,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="26">
+      <c r="I1" s="14">
         <v>0.1</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="J1" s="14" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2301,732 +2464,820 @@
         <f>'چکلیست عمومی'!E2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="14">
         <v>0.5</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="I3" s="26">
+      <c r="E3" s="15"/>
+      <c r="I3" s="14">
         <v>1</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
+      <c r="A4" s="16">
         <f>'چکلیست عمومی'!A4:C4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="22">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="16">
         <f>'چکلیست عمومی'!D4:E4</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="23"/>
+        <v>500</v>
+      </c>
+      <c r="E4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="1" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="13"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="13"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="13"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="13"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="13"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="13" t="s">
+        <v>92</v>
+      </c>
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="13"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="13" t="s">
+        <v>94</v>
+      </c>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="13"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="13"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="13" t="s">
+        <v>93</v>
+      </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="13"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="13"/>
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="13"/>
       <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="13"/>
       <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="13"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="13"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="13"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="13"/>
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="13"/>
       <c r="E22" s="8"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="13"/>
       <c r="E23" s="8"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="13"/>
       <c r="E24" s="8"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="13"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
       <c r="D26" s="13"/>
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
       <c r="D27" s="13"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="13"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
       <c r="D29" s="13"/>
       <c r="E29" s="8"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
       <c r="D30" s="13"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
       <c r="D31" s="13"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="21"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
       <c r="D32" s="13"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
       <c r="D33" s="13"/>
       <c r="E33" s="8"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="13"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="13"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="21"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="21"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
       <c r="D36" s="13"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="21"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="13"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="13"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="13"/>
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="21"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="21"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="13"/>
       <c r="E40" s="8"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="13"/>
       <c r="E41" s="8"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="13"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="13"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="21"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
       <c r="D44" s="13"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
       <c r="D45" s="13"/>
       <c r="E45" s="8"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="21"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
       <c r="D46" s="13"/>
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="21"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="13"/>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="21"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="21"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="13"/>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
       <c r="D49" s="13"/>
       <c r="E49" s="8"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="21"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="13"/>
       <c r="E50" s="8"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="13"/>
       <c r="E51" s="8"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="21"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="21"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="13"/>
       <c r="E52" s="8"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="21"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
       <c r="D53" s="13"/>
       <c r="E53" s="8"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="21"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="C54" s="25"/>
       <c r="D54" s="13"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="25"/>
       <c r="D55" s="13"/>
       <c r="E55" s="8"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
       <c r="D56" s="13"/>
       <c r="E56" s="8"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="21"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="21"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
       <c r="D57" s="13"/>
       <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="25"/>
       <c r="D58" s="13"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="25"/>
       <c r="D59" s="13"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="21"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
       <c r="D60" s="13"/>
       <c r="E60" s="8"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="21"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="21"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="C61" s="25"/>
       <c r="D61" s="13"/>
       <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="21"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="25"/>
       <c r="D62" s="13"/>
       <c r="E62" s="8"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="21"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
       <c r="D63" s="13"/>
       <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="21"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
       <c r="D64" s="13"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="21"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="21"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="C65" s="25"/>
       <c r="D65" s="13"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="21"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="21"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
       <c r="D66" s="13"/>
       <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="21"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
       <c r="D67" s="13"/>
       <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="21"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
       <c r="D68" s="13"/>
       <c r="E68" s="8"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="21"/>
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="C69" s="25"/>
       <c r="D69" s="13"/>
       <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="C70" s="25"/>
       <c r="D70" s="13"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="21"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="21"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
       <c r="D71" s="13"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
       <c r="D72" s="13"/>
       <c r="E72" s="8"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="C73" s="25"/>
       <c r="D73" s="13"/>
       <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="C74" s="25"/>
       <c r="D74" s="13"/>
       <c r="E74" s="8"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
       <c r="D75" s="13"/>
       <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="21"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
       <c r="D76" s="13"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="21"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="C77" s="25"/>
       <c r="D77" s="13"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="21"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="25"/>
       <c r="D78" s="13"/>
       <c r="E78" s="8"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
       <c r="D79" s="13"/>
       <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
       <c r="D80" s="13"/>
       <c r="E80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="C81" s="25"/>
       <c r="D81" s="13"/>
       <c r="E81" s="8"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="C82" s="25"/>
       <c r="D82" s="13"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="21"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
       <c r="D83" s="13"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
       <c r="D84" s="13"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="C85" s="25"/>
       <c r="D85" s="13"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="21"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="25"/>
       <c r="D86" s="13"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="21"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
       <c r="D87" s="13"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="21"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="21"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
       <c r="D88" s="13"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="25"/>
       <c r="D89" s="13"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="21"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="C90" s="25"/>
       <c r="D90" s="13"/>
       <c r="E90" s="8"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="21"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
       <c r="D91" s="13"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
       <c r="D92" s="13"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
       <c r="D93" s="13"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="C94" s="25"/>
       <c r="D94" s="13"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
       <c r="D95" s="13"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
       <c r="D96" s="13"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25"/>
       <c r="D97" s="13"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="21"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25"/>
       <c r="D98" s="13"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="21"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
       <c r="D99" s="13"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="21"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
       <c r="D100" s="13"/>
       <c r="E100" s="8"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="100">
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
     <mergeCell ref="A92:C92"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A82:C82"/>
@@ -3039,96 +3290,24 @@
     <mergeCell ref="A89:C89"/>
     <mergeCell ref="A90:C90"/>
     <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
   </mergeCells>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:C5">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D100" xr:uid="{B1661E6D-2272-42FE-800C-A6430388B7D7}">
@@ -3144,21 +3323,21 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" customWidth="1"/>
-    <col min="3" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="3" max="6" width="33.7109375" customWidth="1"/>
+    <col min="7" max="7" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>88</v>
       </c>
@@ -3172,58 +3351,71 @@
         <v>91</v>
       </c>
       <c r="E1" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="e">
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
         <f>COUNTIF('چکلیست عمومی'!D6:D66,"Y")/
    COUNTA('چکلیست عمومی'!D6:D66)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B2" s="12" t="e">
+        <v>0.95081967213114749</v>
+      </c>
+      <c r="B2" s="12">
         <f>COUNTIF('چکلیست زیرساخت'!D6:D21,"Y")/
    COUNTA('چکلیست زیرساخت'!D6:D21)</f>
-        <v>#DIV/0!</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C2" s="11">
         <f>COUNTA('چکلیست کسب و کار'!D6:D100)</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="25" t="e">
+        <v>8</v>
+      </c>
+      <c r="D2" s="27">
         <f>(COUNTIF('چکلیست کسب و کار'!D6:D100,"M")*0.5
 +COUNTIF('چکلیست کسب و کار'!D6:D100,"S")*0.1
 +COUNTIF('چکلیست کسب و کار'!D6:D100,"C"))/'چکلیست عمومی'!D4:E4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E2" s="12" t="e">
-        <f>(COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"Y"))/
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="E2" s="26">
+        <f>(COUNTIF('چکلیست کسب و کار'!D6:D100,"M")*0.5
++COUNTIF('چکلیست کسب و کار'!D6:D100,"S")*0.1
++COUNTIF('چکلیست کسب و کار'!D6:D100,"C"))</f>
+        <v>3.7</v>
+      </c>
+      <c r="F2" s="26" t="e">
+        <f ca="1">IFS(D2&gt;0.03,D2*4,
+AND(D2&lt;=0.03,D2&gt;0.02),D2*3,
+AND(D2&lt;=0.02,D2&gt;=0.01),D2*2,
+D2&lt;0.01,D2)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="12" t="e">
+        <f ca="1">(COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"Y"))/
    (COUNTA('چکلیست عمومی'!D6:D66)+
     COUNTA('چکلیست زیرساخت'!D6:D21)+C2)  -
-IF(D2&gt;0.03,D2*4,
-IF(AND(D2&lt;=0.03,D2&gt;0.02),D2*3,
-IF(AND(D2&lt;=0.02,D2&gt;=0.01),D2*2,
-IF(D2&lt;0.01,D2))))</f>
-        <v>#DIV/0!</v>
+IFS(D2&gt;0.03,D2*4,
+AND(D2&lt;=0.03,D2&gt;0.02),D2*3,
+AND(D2&lt;=0.02,D2&gt;=0.01),D2*2,
+D2&lt;0.01,D2)</f>
+        <v>#NAME?</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="0rc/kApzW2vKwSnualWfuTgkeyAlCKrdENjKo9afPe1ucJySuhLPpBUVBMfBIcsE/83L+Lth1vXT7JmrbVQerQ==" saltValue="Ns7V7YePBNn87uLS7NurqA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <conditionalFormatting sqref="D2">
+  <conditionalFormatting sqref="D2:F2">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="2"/>
-        <cfvo type="percent" val="100"/>
-        <color rgb="FF00B050"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="0.02"/>
+        <cfvo type="num" val="0.04"/>
+        <color theme="9" tint="-0.249977111117893"/>
         <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FFC00000"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="D2:E2 A2:B2" evalError="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
--- a/QC Checklist_backup.xlsx
+++ b/QC Checklist_backup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Pouya\control quality\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiralipour\Documents\control-quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E9A719-18E8-4668-BE42-046E2E2D656E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D7B64F-C3BE-4587-A2C8-B242CC78E8A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="چکلیست عمومی" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,44 @@
     <definedName name="_ftn1" localSheetId="0">'چکلیست عمومی'!#REF!</definedName>
     <definedName name="_ftnref1" localSheetId="0">'چکلیست عمومی'!$D$66</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,26 +583,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -590,6 +608,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -602,39 +626,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -945,20 +1017,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1237,805 +1295,756 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="19.5703125" style="18" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="18" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" style="18" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="18" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="18" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="33">
         <v>500</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="22"/>
     </row>
     <row r="7" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="4"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="22"/>
     </row>
     <row r="8" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="4"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="22"/>
     </row>
     <row r="9" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="22"/>
     </row>
     <row r="11" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="4"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="22"/>
     </row>
     <row r="12" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="22"/>
     </row>
     <row r="13" spans="1:5" ht="42" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="4"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="22"/>
     </row>
     <row r="14" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="7"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="23"/>
     </row>
     <row r="15" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" s="7"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="4"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="22"/>
     </row>
     <row r="17" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="4"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="22"/>
     </row>
     <row r="18" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E18" s="7"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="23"/>
     </row>
     <row r="19" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="22"/>
     </row>
     <row r="20" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="4"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E20" s="22"/>
     </row>
     <row r="21" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="4"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="22"/>
     </row>
     <row r="22" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E22" s="4"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="22"/>
     </row>
     <row r="23" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E23" s="4"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="22"/>
     </row>
     <row r="24" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E24" s="4"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E24" s="22"/>
     </row>
     <row r="25" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="23" t="s">
+      <c r="A25" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="4"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="22"/>
     </row>
     <row r="26" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="27" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="4"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" s="22"/>
     </row>
     <row r="27" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="4"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E27" s="22"/>
     </row>
     <row r="28" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="4"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="23" t="s">
+      <c r="A29" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="4"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="23" t="s">
+      <c r="A30" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E30" s="4"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E31" s="4"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="4"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="23" t="s">
+      <c r="A33" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="4"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="23" t="s">
+      <c r="A34" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E34" s="4"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="23" t="s">
+      <c r="A35" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="4"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="4"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E37" s="4"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="24"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E38" s="4"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="23" t="s">
+      <c r="A39" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
-      <c r="D39" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E39" s="4"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E40" s="4"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E41" s="4"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="24" t="s">
+      <c r="A42" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="24"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="4"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="4"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="24" t="s">
+      <c r="A44" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="24"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E44" s="4"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="24"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E45" s="4"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="23" t="s">
+      <c r="A46" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
-      <c r="D46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E46" s="4"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="23" t="s">
+      <c r="A47" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
-      <c r="D47" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="4"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A48" s="24" t="s">
+      <c r="A48" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="6"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="29"/>
     </row>
     <row r="49" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
-      <c r="D49" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E49" s="6"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="29"/>
     </row>
     <row r="50" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="23" t="s">
+      <c r="A50" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
-      <c r="D50" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E50" s="6"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="29"/>
     </row>
     <row r="51" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B51" s="24"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" s="6"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="29"/>
     </row>
     <row r="52" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="6"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="29"/>
     </row>
     <row r="53" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" s="6"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="29"/>
     </row>
     <row r="54" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="23" t="s">
+      <c r="A54" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="5" t="s">
+      <c r="B54" s="27"/>
+      <c r="C54" s="27"/>
+      <c r="D54" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="6"/>
+      <c r="E54" s="29"/>
     </row>
     <row r="55" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A55" s="24" t="s">
+      <c r="A55" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="24"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" s="6"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" s="29"/>
     </row>
     <row r="56" spans="1:5" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="23" t="s">
+      <c r="A56" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E56" s="6"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="29"/>
     </row>
     <row r="57" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="24"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E57" s="6"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" s="29"/>
     </row>
     <row r="58" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="5" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E58" s="6"/>
+      <c r="E58" s="29"/>
     </row>
     <row r="59" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="23" t="s">
+      <c r="A59" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E59" s="6"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A60" s="24" t="s">
+      <c r="A60" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="24"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E60" s="6"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="29"/>
     </row>
     <row r="61" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A61" s="24" t="s">
+      <c r="A61" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="B61" s="24"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="6"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="29"/>
     </row>
     <row r="62" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A62" s="24" t="s">
+      <c r="A62" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B62" s="24"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E62" s="6"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="29"/>
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A63" s="24" t="s">
+      <c r="A63" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="24"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="5" t="s">
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="6"/>
+      <c r="E63" s="29"/>
     </row>
     <row r="64" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A64" s="24" t="s">
+      <c r="A64" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="24"/>
-      <c r="C64" s="24"/>
-      <c r="D64" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E64" s="6"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="28"/>
+      <c r="D64" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" s="29"/>
     </row>
     <row r="65" spans="1:5" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A65" s="24" t="s">
+      <c r="A65" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="24"/>
-      <c r="C65" s="24"/>
-      <c r="D65" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E65" s="6"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="28"/>
+      <c r="D65" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E65" s="29"/>
     </row>
     <row r="66" spans="1:5" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B66" s="21"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E66" s="6"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E66" s="29"/>
     </row>
     <row r="73" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.45"/>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="UDXniSDDTlNSchgV2a/ygj10Q2hsdfSbX3sAR12yEn0FxVgPZsWUNefFNN52+3K0zUUfeBu0YpShYzYb16gtzA==" saltValue="d4WsLa68L/3PyWmxAJGYsw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A5:E5" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0" showButton="0"/>
     <filterColumn colId="1" showButton="0"/>
   </autoFilter>
   <mergeCells count="66">
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D3:E3"/>
@@ -2052,6 +2061,56 @@
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A53:C53"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:C2">
     <cfRule type="duplicateValues" dxfId="30" priority="1"/>
@@ -2071,262 +2130,271 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A4" sqref="A4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="30.140625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="49.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" style="36" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="36" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="36" customWidth="1"/>
+    <col min="5" max="5" width="49.85546875" style="36" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="30" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="31">
         <f>'چکلیست عمومی'!A2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="31">
         <f>'چکلیست عمومی'!B2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="31">
         <f>'چکلیست عمومی'!C2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="31">
         <f>'چکلیست عمومی'!D2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="31">
         <f>'چکلیست عمومی'!E2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="33">
         <f>'چکلیست عمومی'!A4:C4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="33">
         <f>'چکلیست عمومی'!D4:E4</f>
         <v>500</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="35"/>
     </row>
     <row r="5" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="23" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="22"/>
+    </row>
+    <row r="7" spans="1:5" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="27" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="20" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="29"/>
+    </row>
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="23" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="22"/>
+    </row>
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E9" s="4"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="22"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="23" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="22"/>
+    </row>
+    <row r="11" spans="1:5" s="18" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="24" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="22"/>
+    </row>
+    <row r="12" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="A12" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="24" t="s">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="22"/>
+    </row>
+    <row r="13" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="A13" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A14" s="23" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="22"/>
+    </row>
+    <row r="14" spans="1:5" s="18" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="24" t="s">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" s="22"/>
+    </row>
+    <row r="15" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="A15" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="24" t="s">
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+    </row>
+    <row r="16" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="A16" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="5" t="s">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="24" t="s">
+      <c r="E16" s="22"/>
+    </row>
+    <row r="17" spans="1:5" s="18" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="24" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="22"/>
+    </row>
+    <row r="18" spans="1:5" s="18" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="5" t="s">
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="24" t="s">
+      <c r="E18" s="22"/>
+    </row>
+    <row r="19" spans="1:5" s="18" customFormat="1" ht="31.5" x14ac:dyDescent="0.45">
+      <c r="A19" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="23" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" s="18" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="21" t="s">
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" s="18" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="29"/>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="3hpD7TBCJnEW1ifvDd3mFwpR6Zz2K/b0Q+y0lnC4umXHlWWJvcLmiNuMnLgIr88Ro4j2tXdaKlUskD5L537Wog==" saltValue="IL7TMuhPj4bn+YIjG4CzVQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="21">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A4:C4"/>
@@ -2341,13 +2409,6 @@
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="27" priority="1"/>
@@ -2408,7 +2469,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,77 +2497,77 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="14">
+      <c r="I1" s="9">
         <v>0.1</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="9" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <f>'چکلیست عمومی'!A2</f>
         <v>0</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>'چکلیست عمومی'!B2</f>
         <v>0</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="2">
         <f>'چکلیست عمومی'!C2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <f>'چکلیست عمومی'!D2</f>
         <v>0</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>'چکلیست عمومی'!E2</f>
         <v>0</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="9">
         <v>0.5</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E3" s="15"/>
-      <c r="I3" s="14">
+      <c r="E3" s="12"/>
+      <c r="I3" s="9">
         <v>1</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="9" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+      <c r="A4" s="13">
         <f>'چکلیست عمومی'!A4:C4</f>
         <v>0</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="16">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="13">
         <f>'چکلیست عمومی'!D4:E4</f>
         <v>500</v>
       </c>
-      <c r="E4" s="18"/>
+      <c r="E4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="1" t="s">
         <v>97</v>
       </c>
@@ -2515,697 +2576,769 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="13" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="8"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="13" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="8"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="13" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="8"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="13" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="13" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E10" s="8"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="13" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="8"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="13" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="8"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="13" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="8"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="8"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="8"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="8"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="8"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="8"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="8"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="8"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="8"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="8"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="8"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="8"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="8"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="8"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="8"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="8"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="8"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="8"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="8"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="8"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="8"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="8"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="8"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="8"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="8"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="8"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="8"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="8"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="8"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="8"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="8"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="8"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="8"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="13"/>
-      <c r="E49" s="8"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="8"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="8"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="8"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="8"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="8"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="8"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="8"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="8"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="25"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="8"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="8"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="8"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
-      <c r="C61" s="25"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="8"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="8"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="8"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="8"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
-      <c r="C65" s="25"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="8"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="8"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="13"/>
-      <c r="E67" s="8"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="13"/>
-      <c r="E68" s="8"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
-      <c r="B69" s="25"/>
-      <c r="C69" s="25"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="8"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="8"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="8"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="8"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="8"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="8"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="8"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="8"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="8"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="8"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="8"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="8"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="8"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="8"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="8"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="8"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="8"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="8"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="8"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="8"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="25"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="25"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="8"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
-      <c r="B90" s="25"/>
-      <c r="C90" s="25"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="8"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="8"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="8"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="25"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="8"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="8"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="8"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="8"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="25"/>
-      <c r="B97" s="25"/>
-      <c r="C97" s="25"/>
-      <c r="D97" s="13"/>
-      <c r="E97" s="8"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
-      <c r="B98" s="25"/>
-      <c r="C98" s="25"/>
-      <c r="D98" s="13"/>
-      <c r="E98" s="8"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="13"/>
-      <c r="E99" s="8"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="13"/>
-      <c r="E100" s="8"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="3"/>
     </row>
   </sheetData>
   <sheetProtection insertColumns="0" insertRows="0" selectLockedCells="1"/>
   <mergeCells count="100">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
@@ -3218,86 +3351,14 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A3:C3"/>
   </mergeCells>
   <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="3" priority="1"/>
@@ -3325,8 +3386,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView rightToLeft="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3338,69 +3399,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="4" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="5">
         <f>COUNTIF('چکلیست عمومی'!D6:D66,"Y")/
    COUNTA('چکلیست عمومی'!D6:D66)</f>
         <v>0.95081967213114749</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="7">
         <f>COUNTIF('چکلیست زیرساخت'!D6:D21,"Y")/
    COUNTA('چکلیست زیرساخت'!D6:D21)</f>
         <v>0.81818181818181823</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="6">
         <f>COUNTA('چکلیست کسب و کار'!D6:D100)</f>
         <v>8</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="11">
         <f>(COUNTIF('چکلیست کسب و کار'!D6:D100,"M")*0.5
 +COUNTIF('چکلیست کسب و کار'!D6:D100,"S")*0.1
 +COUNTIF('چکلیست کسب و کار'!D6:D100,"C"))/'چکلیست عمومی'!D4:E4</f>
         <v>7.4000000000000003E-3</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="10">
         <f>(COUNTIF('چکلیست کسب و کار'!D6:D100,"M")*0.5
 +COUNTIF('چکلیست کسب و کار'!D6:D100,"S")*0.1
 +COUNTIF('چکلیست کسب و کار'!D6:D100,"C"))</f>
         <v>3.7</v>
       </c>
-      <c r="F2" s="26" t="e">
-        <f ca="1">IFS(D2&gt;0.03,D2*4,
+      <c r="F2" s="10" cm="1">
+        <f t="array" ref="F2">_xlfn.IFS(D2&gt;0.03,D2*4,
 AND(D2&lt;=0.03,D2&gt;0.02),D2*3,
 AND(D2&lt;=0.02,D2&gt;=0.01),D2*2,
 D2&lt;0.01,D2)</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="12" t="e">
-        <f ca="1">(COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"Y"))/
+        <v>7.4000000000000003E-3</v>
+      </c>
+      <c r="G2" s="7" cm="1">
+        <f t="array" ref="G2">(COUNTIF('چکلیست عمومی'!D6:D66,"Y")+COUNTIF('چکلیست زیرساخت'!D6:D21,"Y"))/
    (COUNTA('چکلیست عمومی'!D6:D66)+
     COUNTA('چکلیست زیرساخت'!D6:D21)+C2)  -
-IFS(D2&gt;0.03,D2*4,
+_xlfn.IFS(D2&gt;0.03,D2*4,
 AND(D2&lt;=0.03,D2&gt;0.02),D2*3,
 AND(D2&lt;=0.02,D2&gt;=0.01),D2*2,
 D2&lt;0.01,D2)</f>
-        <v>#NAME?</v>
+        <v>0.83010000000000006</v>
       </c>
     </row>
   </sheetData>
